--- a/xlsx_files/東京ガス株式会社.xlsx
+++ b/xlsx_files/東京ガス株式会社.xlsx
@@ -489,14 +489,6 @@
           <t>電気・ガス・水道/経営企画・戦略/再エネ技術人材</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:7000000.0
-Max:13000000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
@@ -553,14 +545,6 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>都市ガス関連業務</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:223000.0
-Max:223000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -883,14 +867,6 @@
           <t>電気・ガス・水道/財務/再エネ事業会社設立・運営人材(風力発電事業開発)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:7000000.0
-Max:12000000.0
-type:yearly</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
@@ -954,14 +930,6 @@
       <c r="D5" t="inlineStr">
         <is>
           <t>給排水工事の施工</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:250000.0
-Max:250000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1265,14 +1233,6 @@
           <t>【文系職】営業-家庭用/営業-業務・産業用/電力事業計画/原料調達/海外事業/コーポレートスタッフ 【理系職】営業-家庭用/営業-業務・産業用/パイプライン技術/生産技術/お客さま設備技術/ 技術開発/電力事業計画・エンジニアリング/原料調達/海外事業/ITソリューション</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:202250.0
-Max:227670.0
-type:monthly</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t xml:space="preserve">東京ガス株式会社 
@@ -1343,14 +1303,6 @@
       <c r="D7" t="inlineStr">
         <is>
           <t>施工管理</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[JPY]
-Min:250000.0
-Max:350000.0
-type:monthly</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
